--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="435">
   <si>
     <t>date</t>
   </si>
@@ -1288,6 +1288,44 @@
   </si>
   <si>
     <t>1_Dobrosky.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China DIA estimands working group
+</t>
+  </si>
+  <si>
+    <t>ICH E9 addendum and principal strati cation</t>
+  </si>
+  <si>
+    <t>Satrajit Roychoudhury</t>
+  </si>
+  <si>
+    <t>Rethinking Censoring and Censoring Mechanisms in Light of the Estimands Framework</t>
+  </si>
+  <si>
+    <t>Estimand in Hematologic Oncology Trials</t>
+  </si>
+  <si>
+    <t>5_Siegel.pdf</t>
+  </si>
+  <si>
+    <t>4_Roychoudhury.pdf</t>
+  </si>
+  <si>
+    <t>Contribution to panel discussion: Estimands in Oncology:
+A Topical Panel Discussion</t>
+  </si>
+  <si>
+    <t>4_Sun.pdf</t>
+  </si>
+  <si>
+    <t>Royal Statistical Society Session on Design for Medical and Clinical studies</t>
+  </si>
+  <si>
+    <t>Royal Statistical Society Manchester local group Graham Dunn Seminar</t>
+  </si>
+  <si>
+    <t>ICH E9 estimands addendum: Old wine in new bottles or a genuine step forward?</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1394,6 +1432,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,11 +1718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3488,44 +3529,48 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>279</v>
+      <c r="A71" s="8" t="str">
+        <f>"24.08.2021"</f>
+        <v>24.08.2021</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>227</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>227</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="K71" s="8">
         <v>1</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>282</v>
+        <v>22</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>283</v>
+        <v>424</v>
       </c>
       <c r="O71" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>279</v>
       </c>
+      <c r="B72" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C72" s="8" t="s">
         <v>280</v>
       </c>
@@ -3539,28 +3584,25 @@
         <v>227</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K72" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>188</v>
+        <v>282</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>280</v>
-      </c>
       <c r="D73" s="8" t="s">
         <v>227</v>
       </c>
@@ -3574,21 +3616,21 @@
         <v>285</v>
       </c>
       <c r="K73" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>227</v>
@@ -3600,67 +3642,109 @@
         <v>227</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>362</v>
+        <v>285</v>
       </c>
       <c r="K74" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>289</v>
+        <v>279</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="K75" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>268</v>
+        <v>425</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>266</v>
+        <v>427</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>267</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>289</v>
+        <v>279</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="K76" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>266</v>
+        <v>426</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>289</v>
       </c>
+      <c r="B77" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="K77" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="N77" s="9" t="s">
         <v>266</v>
@@ -3674,10 +3758,10 @@
         <v>289</v>
       </c>
       <c r="K78" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N78" s="9" t="s">
         <v>266</v>
@@ -3691,10 +3775,10 @@
         <v>289</v>
       </c>
       <c r="K79" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>270</v>
+        <v>51</v>
       </c>
       <c r="N79" s="9" t="s">
         <v>266</v>
@@ -3703,752 +3787,893 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="K80" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="O80" s="8" t="s">
-        <v>365</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K81" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>363</v>
+        <v>269</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="O81" s="8" t="s">
-        <v>366</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K82" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="N82" s="9" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="K83" s="8">
         <v>1</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
+      </c>
+      <c r="O83" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K84" s="8">
         <v>2</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N84" s="9" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O84" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>302</v>
+      <c r="A85" s="8" t="str">
+        <f>"16.12.2021"</f>
+        <v>16.12.2021</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>304</v>
+        <v>432</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="E85" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="F85" s="8" t="s">
         <v>227</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>305</v>
+        <v>99</v>
       </c>
       <c r="K85" s="8">
         <v>1</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>306</v>
+        <v>247</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>307</v>
+      <c r="A86" s="8" t="str">
+        <f>"23.03.2022"</f>
+        <v>23.03.2022</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>60</v>
+        <v>433</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>309</v>
+        <v>62</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>310</v>
+        <v>99</v>
       </c>
       <c r="K86" s="8">
         <v>1</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>311</v>
+        <v>22</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="O86" s="8" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>307</v>
+        <v>296</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="K87" s="8">
+        <v>1</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88" s="8">
+        <v>1</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="K89" s="8">
         <v>2</v>
       </c>
-      <c r="L87" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="O87" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="K88" s="8">
-        <v>3</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="K89" s="8">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3" t="s">
-        <v>374</v>
+      <c r="L89" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="K90" s="8">
-        <v>5</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="O90" s="8" t="s">
-        <v>382</v>
+        <v>1</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>307</v>
       </c>
+      <c r="B91" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>310</v>
+      </c>
       <c r="K91" s="8">
-        <v>6</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3" t="s">
-        <v>377</v>
+        <v>1</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K92" s="8">
-        <v>1</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="N92" s="9" t="s">
-        <v>319</v>
+        <v>2</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="O92" s="8" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="K93" s="8">
-        <v>1</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="N93" s="9" t="s">
-        <v>325</v>
+        <v>3</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="K94" s="8">
-        <v>1</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="N94" s="9" t="s">
-        <v>329</v>
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O94" s="8" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>68</v>
+        <v>307</v>
       </c>
       <c r="K95" s="8">
-        <v>1</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N95" s="9" t="s">
-        <v>333</v>
+        <v>5</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="K96" s="8">
-        <v>1</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="N96" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>104</v>
+        <v>316</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>414</v>
+        <v>317</v>
       </c>
       <c r="K97" s="8">
         <v>1</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="N97" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="O97" s="8" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>108</v>
+        <v>321</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="K98" s="8">
         <v>1</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="M98" s="8" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="N98" s="9" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>342</v>
+        <v>326</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="K99" s="8">
-        <v>2</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="M99" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="N99" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>392</v>
+        <v>1</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="N99" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>342</v>
+        <v>330</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="K100" s="8">
-        <v>3</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N100" s="4" t="s">
-        <v>390</v>
+        <v>1</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>393</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>350</v>
+        <v>19</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>338</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="K101" s="8">
         <v>1</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="N101" s="9" t="s">
-        <v>395</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>352</v>
+        <v>102</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>354</v>
+        <v>125</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>414</v>
       </c>
       <c r="K102" s="8">
         <v>1</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="N102" s="9" t="s">
-        <v>356</v>
+        <v>312</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>358</v>
+        <v>108</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="K103" s="8">
         <v>1</v>
       </c>
-      <c r="L103" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="M103" s="5" t="s">
+      <c r="L103" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="M103" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N103" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="O103" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="N103" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K104" s="8">
         <v>2</v>
       </c>
-      <c r="L104" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M104" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="N104" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="O104" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="L104" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="O104" s="8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K105" s="8">
         <v>3</v>
       </c>
-      <c r="L105" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M105" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N105" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="O105" s="12" t="s">
-        <v>404</v>
+      <c r="L105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K106" s="8">
         <v>4</v>
       </c>
-      <c r="L106" s="7" t="s">
+      <c r="L106" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M106" s="4"/>
+      <c r="N106" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="K107" s="8">
+        <v>1</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K108" s="8">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="O108" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H109" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="K109" s="8">
+        <v>1</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="O109" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K110" s="8">
+        <v>2</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K111" s="8">
+        <v>3</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="O111" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K112" s="8">
+        <v>4</v>
+      </c>
+      <c r="L112" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="M106" s="7" t="s">
+      <c r="M112" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N106" s="6" t="s">
+      <c r="N112" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="O106" s="12" t="s">
+      <c r="O112" s="12" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+    <row r="113" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="K107" s="8">
+      <c r="K113" s="8">
         <v>5</v>
       </c>
-      <c r="L107" s="7" t="s">
+      <c r="L113" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="M107" s="7" t="s">
+      <c r="M113" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="N107" s="6" t="s">
+      <c r="N113" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="O107" s="12" t="s">
+      <c r="O113" s="12" t="s">
         <v>406</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H74" r:id="rId1"/>
-    <hyperlink ref="H103" r:id="rId2"/>
+    <hyperlink ref="H77" r:id="rId1"/>
+    <hyperlink ref="H109" r:id="rId2"/>
     <hyperlink ref="C51" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="435">
   <si>
     <t>date</t>
   </si>
@@ -1102,9 +1102,6 @@
   </si>
   <si>
     <t>Co-organization</t>
-  </si>
-  <si>
-    <t>https://youtu.be/v0BL7Vw5ywg</t>
   </si>
   <si>
     <t>https://www.psiweb.org/vod/item/psi-eiwg-webinar-estimands-in-oncology---how-and-why</t>
@@ -1326,6 +1323,9 @@
   </si>
   <si>
     <t>ICH E9 estimands addendum: Old wine in new bottles or a genuine step forward?</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/@biostat_reviews</t>
   </si>
 </sst>
 </file>
@@ -1425,9 +1425,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1437,6 +1434,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1720,9 +1718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O86" sqref="O86"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1795,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="str">
+      <c r="A2" s="12" t="str">
         <f>"15.02.2019"</f>
         <v>15.02.2019</v>
       </c>
@@ -2423,6 +2421,9 @@
       <c r="C25" s="8" t="s">
         <v>137</v>
       </c>
+      <c r="D25" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="E25" s="8" t="s">
         <v>105</v>
       </c>
@@ -2452,6 +2453,9 @@
       <c r="B26" s="9" t="s">
         <v>142</v>
       </c>
+      <c r="D26" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="E26" s="8" t="s">
         <v>41</v>
       </c>
@@ -3052,7 +3056,7 @@
         <v>234</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>235</v>
@@ -3076,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" s="8" t="s">
         <v>419</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>420</v>
       </c>
       <c r="N51" s="9" t="s">
         <v>238</v>
@@ -3111,10 +3115,10 @@
         <v>1</v>
       </c>
       <c r="L52" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="M52" s="8" t="s">
         <v>417</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>418</v>
       </c>
       <c r="N52" s="9" t="s">
         <v>242</v>
@@ -3146,10 +3150,10 @@
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="M53" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="N53" s="9" t="s">
         <v>247</v>
@@ -3181,10 +3185,10 @@
         <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="M54" s="8" t="s">
         <v>415</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>416</v>
       </c>
       <c r="N54" s="9" t="s">
         <v>252</v>
@@ -3222,7 +3226,7 @@
         <v>256</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -3534,7 +3538,7 @@
         <v>24.08.2021</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>227</v>
@@ -3558,7 +3562,7 @@
         <v>23</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>25</v>
@@ -3677,13 +3681,13 @@
         <v>4</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O75" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -3712,10 +3716,10 @@
         <v>44</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3738,7 +3742,7 @@
         <v>264</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K77" s="8">
         <v>1</v>
@@ -3867,7 +3871,7 @@
         <v>295</v>
       </c>
       <c r="O83" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -3878,13 +3882,13 @@
         <v>2</v>
       </c>
       <c r="L84" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="N84" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="N84" s="9" t="s">
-        <v>364</v>
-      </c>
       <c r="O84" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3893,7 +3897,7 @@
         <v>16.12.2021</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>227</v>
@@ -3929,7 +3933,7 @@
         <v>23.03.2022</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>227</v>
@@ -3953,7 +3957,7 @@
         <v>23</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O86" s="8" t="s">
         <v>25</v>
@@ -4034,13 +4038,13 @@
         <v>2</v>
       </c>
       <c r="L89" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N89" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="N89" s="9" t="s">
+      <c r="O89" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -4056,6 +4060,9 @@
       <c r="D90" s="8" t="s">
         <v>227</v>
       </c>
+      <c r="E90" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="F90" s="8" t="s">
         <v>227</v>
       </c>
@@ -4101,7 +4108,7 @@
         <v>312</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -4112,14 +4119,14 @@
         <v>2</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -4130,14 +4137,14 @@
         <v>3</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M93" s="3"/>
       <c r="N93" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
@@ -4152,10 +4159,10 @@
       </c>
       <c r="M94" s="3"/>
       <c r="N94" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -4166,14 +4173,14 @@
         <v>5</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M95" s="3"/>
       <c r="N95" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O95" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -4188,10 +4195,10 @@
       </c>
       <c r="M96" s="3"/>
       <c r="N96" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -4255,7 +4262,7 @@
         <v>325</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -4374,7 +4381,7 @@
         <v>125</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K102" s="8">
         <v>1</v>
@@ -4386,7 +4393,7 @@
         <v>312</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -4415,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M103" s="8" t="s">
         <v>117</v>
@@ -4424,7 +4431,7 @@
         <v>345</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -4435,16 +4442,16 @@
         <v>2</v>
       </c>
       <c r="L104" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M104" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="N104" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -4461,10 +4468,10 @@
         <v>44</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O105" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
@@ -4474,15 +4481,15 @@
       <c r="K106" s="8">
         <v>4</v>
       </c>
-      <c r="L106" s="14" t="s">
+      <c r="L106" s="13" t="s">
         <v>90</v>
       </c>
       <c r="M106" s="4"/>
       <c r="N106" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="O106" s="8" t="s">
         <v>430</v>
-      </c>
-      <c r="O106" s="8" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -4505,7 +4512,7 @@
         <v>338</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K107" s="8">
         <v>1</v>
@@ -4514,7 +4521,7 @@
         <v>132</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -4549,7 +4556,7 @@
         <v>356</v>
       </c>
       <c r="O108" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4571,23 +4578,23 @@
       <c r="G109" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="H109" s="11" t="s">
-        <v>361</v>
+      <c r="H109" s="14" t="s">
+        <v>434</v>
       </c>
       <c r="K109" s="8">
         <v>1</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M109" s="5" t="s">
         <v>117</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="O109" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
@@ -4598,16 +4605,16 @@
         <v>2</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="O110" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
+      </c>
+      <c r="O110" s="11" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
@@ -4618,16 +4625,16 @@
         <v>3</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M111" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="O111" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
+      </c>
+      <c r="O111" s="11" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
@@ -4638,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M112" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="O112" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
@@ -4658,23 +4665,23 @@
         <v>5</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="O113" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
+      </c>
+      <c r="O113" s="11" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H77" r:id="rId1"/>
-    <hyperlink ref="H109" r:id="rId2"/>
-    <hyperlink ref="C51" r:id="rId3"/>
+    <hyperlink ref="C51" r:id="rId2"/>
+    <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="447">
   <si>
     <t>date</t>
   </si>
@@ -1326,6 +1326,42 @@
   </si>
   <si>
     <t>http://www.youtube.com/@biostat_reviews</t>
+  </si>
+  <si>
+    <t>Duke Industry Statistics Symposium 2023</t>
+  </si>
+  <si>
+    <t>https://sites.duke.edu/diss/</t>
+  </si>
+  <si>
+    <t>Preliminary: "estimands for time-to-event endpoints"</t>
+  </si>
+  <si>
+    <t>PSI conference</t>
+  </si>
+  <si>
+    <t>https://www.psiweb.org/conferences/about-the-conference</t>
+  </si>
+  <si>
+    <t>Invited session</t>
+  </si>
+  <si>
+    <t>Lynda Grinsted</t>
+  </si>
+  <si>
+    <t>Francois Mercier</t>
+  </si>
+  <si>
+    <t>J&amp;J</t>
+  </si>
+  <si>
+    <t>Yufei Wang</t>
+  </si>
+  <si>
+    <t>GSK</t>
+  </si>
+  <si>
+    <t>IQVIA</t>
   </si>
 </sst>
 </file>
@@ -1716,11 +1752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1768,7 @@
     <col min="5" max="5" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" style="8" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="8" bestFit="1" customWidth="1"/>
@@ -4677,13 +4713,155 @@
         <v>405</v>
       </c>
     </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="str">
+        <f>"29.03.2023"</f>
+        <v>29.03.2023</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K114" s="8">
+        <v>1</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M114" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N114" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="str">
+        <f>"11.06.2023"</f>
+        <v>11.06.2023</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="K115" s="8">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="str">
+        <f t="shared" ref="A116:A122" si="0">"11.06.2023"</f>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K116" s="8">
+        <v>2</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K117" s="8">
+        <v>3</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K118" s="8">
+        <v>4</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="M118" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K119" s="8">
+        <v>5</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K120" s="8">
+        <v>6</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H77" r:id="rId1"/>
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
+    <hyperlink ref="C114" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -1349,9 +1349,6 @@
     <t>Lynda Grinsted</t>
   </si>
   <si>
-    <t>Francois Mercier</t>
-  </si>
-  <si>
     <t>J&amp;J</t>
   </si>
   <si>
@@ -1362,6 +1359,9 @@
   </si>
   <si>
     <t>IQVIA</t>
+  </si>
+  <si>
+    <t>Elizabeth Pilling</t>
   </si>
 </sst>
 </file>
@@ -1754,9 +1754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121:A122"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
-        <f t="shared" ref="A116:A122" si="0">"11.06.2023"</f>
+        <f t="shared" ref="A116:A120" si="0">"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K116" s="8">
@@ -4791,7 +4791,7 @@
         <v>173</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -4803,10 +4803,10 @@
         <v>3</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -4833,10 +4833,10 @@
         <v>5</v>
       </c>
       <c r="L119" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="M119" s="8" t="s">
         <v>444</v>
-      </c>
-      <c r="M119" s="8" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
         <v>294</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="451">
   <si>
     <t>date</t>
   </si>
@@ -1362,6 +1362,18 @@
   </si>
   <si>
     <t>Elizabeth Pilling</t>
+  </si>
+  <si>
+    <t>Nordic lymphoma group plenary meeting</t>
+  </si>
+  <si>
+    <t>http://www.nordic-lymphoma.org/plenary-meeting/</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Denmark</t>
   </si>
 </sst>
 </file>
@@ -1752,11 +1764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P120"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M117" sqref="M117"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4854,14 +4866,48 @@
         <v>445</v>
       </c>
     </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="str">
+        <f>"08.11.2023"</f>
+        <v>08.11.2023</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K121" s="8">
+        <v>1</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H77" r:id="rId1"/>
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
+    <hyperlink ref="C121" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="459">
   <si>
     <t>date</t>
   </si>
@@ -1334,9 +1334,6 @@
     <t>https://sites.duke.edu/diss/</t>
   </si>
   <si>
-    <t>Preliminary: "estimands for time-to-event endpoints"</t>
-  </si>
-  <si>
     <t>PSI conference</t>
   </si>
   <si>
@@ -1374,6 +1371,33 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estimands and Censoring in Oncology Time-to-Event Trials -- Answering the Right Question</t>
+  </si>
+  <si>
+    <t>Lifetime Data Science Conference (LIDS)</t>
+  </si>
+  <si>
+    <t>https://community.amstat.org/lids/home</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>https://ww2.amstat.org/meetings/jsm/2023/</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Contributed session</t>
+  </si>
+  <si>
+    <t>Estimands and Safety in Oncology Clinical Trials</t>
   </si>
 </sst>
 </file>
@@ -1764,11 +1788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P121"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4755,70 +4779,88 @@
         <v>44</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="str">
+        <f>"31.05.2023"</f>
+        <v>31.05.2023</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="K115" s="8">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="str">
         <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B116" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="D116" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G115" s="8" t="s">
+      <c r="K116" s="8">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="K115" s="8">
-        <v>1</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="M115" s="8" t="s">
+      <c r="M116" s="8" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="str">
-        <f t="shared" ref="A116:A120" si="0">"11.06.2023"</f>
-        <v>11.06.2023</v>
-      </c>
-      <c r="K116" s="8">
-        <v>2</v>
-      </c>
-      <c r="L116" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M116" s="8" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A117:A121" si="0">"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K117" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>446</v>
+        <v>173</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>52</v>
+        <v>441</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -4827,13 +4869,13 @@
         <v>11.06.2023</v>
       </c>
       <c r="K118" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>387</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -4842,13 +4884,13 @@
         <v>11.06.2023</v>
       </c>
       <c r="K119" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -4857,45 +4899,96 @@
         <v>11.06.2023</v>
       </c>
       <c r="K120" s="8">
+        <v>5</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K121" s="8">
         <v>6</v>
       </c>
-      <c r="L120" s="8" t="s">
+      <c r="L121" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="M120" s="8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="str">
+      <c r="M121" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="str">
+        <f>"05.08.2023"</f>
+        <v>05.08.2023</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K122" s="8">
+        <v>1</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B123" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="D123" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="E121" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="F121" s="8" t="s">
+      <c r="F123" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G123" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K121" s="8">
-        <v>1</v>
-      </c>
-      <c r="L121" s="8" t="s">
+      <c r="K123" s="8">
+        <v>1</v>
+      </c>
+      <c r="L123" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M121" s="8" t="s">
+      <c r="M123" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4905,9 +4998,11 @@
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C121" r:id="rId5"/>
+    <hyperlink ref="C123" r:id="rId5"/>
+    <hyperlink ref="C115" r:id="rId6"/>
+    <hyperlink ref="C122" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="465">
   <si>
     <t>date</t>
   </si>
@@ -1394,10 +1394,28 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>Contributed session</t>
-  </si>
-  <si>
     <t>Estimands and Safety in Oncology Clinical Trials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Title Applying the estimands framework to time-to-event oncology studies: What happens when you cannot follow past an intercurrent event?</t>
+  </si>
+  <si>
+    <t>Invited talks</t>
+  </si>
+  <si>
+    <t>Liwei Wang</t>
+  </si>
+  <si>
+    <t>GenMab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Title Logic respecting efficacy measures in the presence of prognostic or predictive biomarker subgroups</t>
+  </si>
+  <si>
+    <t>AbbVie</t>
+  </si>
+  <si>
+    <t>Estimands and treatment switching</t>
   </si>
 </sst>
 </file>
@@ -1788,11 +1806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N122" sqref="N122"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4782,7 +4800,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="str">
         <f>"31.05.2023"</f>
         <v>31.05.2023</v>
@@ -4803,7 +4821,7 @@
         <v>338</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K115" s="8">
         <v>1</v>
@@ -4814,65 +4832,76 @@
       <c r="M115" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N115" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
+        <f t="shared" ref="A116:A117" si="0">"31.05.2023"</f>
+        <v>31.05.2023</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="K116" s="8">
+        <v>2</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>31.05.2023</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="K117" s="8">
+        <v>3</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="str">
         <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B118" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G118" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="K116" s="8">
-        <v>1</v>
-      </c>
-      <c r="L116" s="8" t="s">
+      <c r="K118" s="8">
+        <v>1</v>
+      </c>
+      <c r="L118" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="M116" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="str">
-        <f t="shared" ref="A117:A121" si="0">"11.06.2023"</f>
-        <v>11.06.2023</v>
-      </c>
-      <c r="K117" s="8">
-        <v>2</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M117" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>11.06.2023</v>
-      </c>
-      <c r="K118" s="8">
-        <v>3</v>
-      </c>
-      <c r="L118" s="8" t="s">
-        <v>445</v>
       </c>
       <c r="M118" s="8" t="s">
         <v>52</v>
@@ -4880,115 +4909,145 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A119:A123" si="1">"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K119" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>386</v>
+        <v>173</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
       <c r="K120" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
       <c r="K121" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K122" s="8">
+        <v>5</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="M122" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>11.06.2023</v>
+      </c>
+      <c r="K123" s="8">
+        <v>6</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="str">
         <f>"05.08.2023"</f>
         <v>05.08.2023</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B124" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F124" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G124" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K122" s="8">
-        <v>1</v>
-      </c>
-      <c r="L122" s="8" t="s">
+      <c r="K124" s="8">
+        <v>1</v>
+      </c>
+      <c r="L124" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M122" s="8" t="s">
+      <c r="M124" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N122" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A123" s="12" t="str">
+      <c r="N124" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B125" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F125" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G123" s="8" t="s">
+      <c r="G125" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K123" s="8">
-        <v>1</v>
-      </c>
-      <c r="L123" s="8" t="s">
+      <c r="K125" s="8">
+        <v>1</v>
+      </c>
+      <c r="L125" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M123" s="8" t="s">
+      <c r="M125" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4998,9 +5057,9 @@
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C123" r:id="rId5"/>
+    <hyperlink ref="C125" r:id="rId5"/>
     <hyperlink ref="C115" r:id="rId6"/>
-    <hyperlink ref="C122" r:id="rId7"/>
+    <hyperlink ref="C124" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="482">
   <si>
     <t>date</t>
   </si>
@@ -1416,6 +1416,57 @@
   </si>
   <si>
     <t>Estimands and treatment switching</t>
+  </si>
+  <si>
+    <t>Seminar of the Basel Biometrics Section</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/events_past.html#quantification-of-risk-ask-the-right-questions-or-time-to-apply-the-estimand-framework-to-safety</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>https://streamingmedia.roche.com/media/t/1_xzv5rejn</t>
+  </si>
+  <si>
+    <t>https://streamingmedia.roche.com/media/t/1_gt2u676m</t>
+  </si>
+  <si>
+    <t>Rima Izem</t>
+  </si>
+  <si>
+    <t>Welcome, scene setting and “Let us put the scientific objective first!”</t>
+  </si>
+  <si>
+    <t>Stop the abuse: A plea for a more principled approach to the analysis of time-to-event endpoints with varying follow-up times and/or competing risks, with a focus on analysis of AEs.</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20230412/2_Rufibach.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20230412/1_Izem.pdf</t>
+  </si>
+  <si>
+    <t>Andrew Thomson</t>
+  </si>
+  <si>
+    <t>EMA (discussant)</t>
+  </si>
+  <si>
+    <t>Shanti Gomatam</t>
+  </si>
+  <si>
+    <t>FDA (discussant)</t>
+  </si>
+  <si>
+    <t>Comments (no slides)</t>
+  </si>
+  <si>
+    <t>Quantification of risk: ask the right questions or time to apply the estimand framework to safety</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20230412/3_Gomatam.pdf</t>
   </si>
 </sst>
 </file>
@@ -1806,11 +1857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P125"/>
+  <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P129" sqref="P129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4747,7 +4798,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>357</v>
       </c>
@@ -4767,7 +4818,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="str">
         <f>"29.03.2023"</f>
         <v>29.03.2023</v>
@@ -4800,7 +4851,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="str">
         <f>"31.05.2023"</f>
         <v>31.05.2023</v>
@@ -4836,7 +4887,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
         <f t="shared" ref="A116:A117" si="0">"31.05.2023"</f>
         <v>31.05.2023</v>
@@ -4855,7 +4906,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
@@ -4874,7 +4925,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="str">
         <f>"11.06.2023"</f>
         <v>11.06.2023</v>
@@ -4907,7 +4958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="str">
         <f t="shared" ref="A119:A123" si="1">"11.06.2023"</f>
         <v>11.06.2023</v>
@@ -4922,7 +4973,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -4937,7 +4988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -4952,7 +5003,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -4967,7 +5018,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -4982,7 +5033,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
         <f>"05.08.2023"</f>
         <v>05.08.2023</v>
@@ -5018,7 +5069,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
@@ -5049,6 +5100,111 @@
       </c>
       <c r="M125" s="8" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="K126" s="8">
+        <v>1</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="M126" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="P126" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="K127" s="8">
+        <v>2</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N127" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="P127" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="K128" s="8">
+        <v>3</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="M128" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="N128" s="9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="K129" s="8">
+        <v>4</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="N129" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="P129" s="8" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="494">
   <si>
     <t>date</t>
   </si>
@@ -1397,21 +1397,12 @@
     <t>Estimands and Safety in Oncology Clinical Trials</t>
   </si>
   <si>
-    <t xml:space="preserve"> Title Applying the estimands framework to time-to-event oncology studies: What happens when you cannot follow past an intercurrent event?</t>
-  </si>
-  <si>
-    <t>Invited talks</t>
-  </si>
-  <si>
     <t>Liwei Wang</t>
   </si>
   <si>
     <t>GenMab</t>
   </si>
   <si>
-    <t xml:space="preserve"> Title Logic respecting efficacy measures in the presence of prognostic or predictive biomarker subgroups</t>
-  </si>
-  <si>
     <t>AbbVie</t>
   </si>
   <si>
@@ -1467,6 +1458,51 @@
   </si>
   <si>
     <t>https://baselbiometrics.github.io/home/docs/talks/20230412/3_Gomatam.pdf</t>
+  </si>
+  <si>
+    <t>Vitaly Drucker</t>
+  </si>
+  <si>
+    <t>Treatment switching adjustment in the context of non-proportional hazards</t>
+  </si>
+  <si>
+    <t>Applying the estimands framework to time-to-event oncology studies: What happens when you cannot follow past an intercurrent event?</t>
+  </si>
+  <si>
+    <t>Richard Cook</t>
+  </si>
+  <si>
+    <t>University of Waterloo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussant </t>
+  </si>
+  <si>
+    <t>3_Siegel.pdf</t>
+  </si>
+  <si>
+    <t>Patrick Schlömer</t>
+  </si>
+  <si>
+    <t>Efficiency of recurrent and time-to-first event methods in the presence of terminal events – Application to chronic heart failure trials</t>
+  </si>
+  <si>
+    <t>Logic respecting efficacy measures in the presence of prognostic or predictive biomarker subgroups</t>
+  </si>
+  <si>
+    <t>Genentech</t>
+  </si>
+  <si>
+    <t>Balancing events, not patients, maximizes power in randomized survival studies</t>
+  </si>
+  <si>
+    <t>7_Yung.pdf</t>
+  </si>
+  <si>
+    <t>Pfizer</t>
+  </si>
+  <si>
+    <t>Organizer of two sessions and invited talks</t>
   </si>
 </sst>
 </file>
@@ -1857,11 +1893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P129"/>
+  <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P129" sqref="P129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A119" sqref="A119:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,360 +4887,461 @@
         <v>450</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="K115" s="8">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N115" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="P115" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="K116" s="8">
+        <v>2</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M116" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N116" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="P116" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="K117" s="8">
+        <v>3</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="N117" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="str">
+        <f>"12.04.2023"</f>
+        <v>12.04.2023</v>
+      </c>
+      <c r="K118" s="8">
+        <v>4</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="M118" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="P118" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="str">
         <f>"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B119" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F119" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G115" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="K115" s="8">
-        <v>1</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M115" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N115" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="str">
-        <f t="shared" ref="A116:A117" si="0">"31.05.2023"</f>
+      <c r="G119" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="K119" s="8">
+        <v>1</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="str">
+        <f t="shared" ref="A120:A126" si="0">"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="K116" s="8">
+      <c r="C120" s="10"/>
+      <c r="K120" s="8">
         <v>2</v>
       </c>
-      <c r="L116" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="M116" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="N116" s="9" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="str">
+      <c r="L120" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="M120" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C117" s="10"/>
-      <c r="K117" s="8">
+      <c r="C121" s="10"/>
+      <c r="K121" s="8">
         <v>3</v>
       </c>
-      <c r="L117" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="M117" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="N117" s="9" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="str">
+      <c r="L121" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N121" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="str">
+        <f>"31.05.2023"</f>
+        <v>31.05.2023</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="K122" s="8">
+        <v>4</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="M122" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="N122" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>31.05.2023</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="K123" s="8">
+        <v>5</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N123" s="9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>31.05.2023</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="K124" s="8">
+        <v>6</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="M124" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="N124" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>31.05.2023</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="K125" s="8">
+        <v>7</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="N125" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="O125" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>31.05.2023</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="K126" s="8">
+        <v>8</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M126" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="str">
         <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B127" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D127" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F127" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G127" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="K118" s="8">
-        <v>1</v>
-      </c>
-      <c r="L118" s="8" t="s">
+      <c r="K127" s="8">
+        <v>1</v>
+      </c>
+      <c r="L127" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="M118" s="8" t="s">
+      <c r="M127" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="str">
-        <f t="shared" ref="A119:A123" si="1">"11.06.2023"</f>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="str">
+        <f t="shared" ref="A128:A132" si="1">"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
-      <c r="K119" s="8">
+      <c r="K128" s="8">
         <v>2</v>
       </c>
-      <c r="L119" s="8" t="s">
+      <c r="L128" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="M119" s="8" t="s">
+      <c r="M128" s="8" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="str">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K120" s="8">
+      <c r="K129" s="8">
         <v>3</v>
       </c>
-      <c r="L120" s="8" t="s">
+      <c r="L129" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="M120" s="8" t="s">
+      <c r="M129" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="str">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K121" s="8">
+      <c r="K130" s="8">
         <v>4</v>
       </c>
-      <c r="L121" s="8" t="s">
+      <c r="L130" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="M121" s="8" t="s">
+      <c r="M130" s="8" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="str">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K122" s="8">
+      <c r="K131" s="8">
         <v>5</v>
       </c>
-      <c r="L122" s="8" t="s">
+      <c r="L131" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="M122" s="8" t="s">
+      <c r="M131" s="8" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="str">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K123" s="8">
+      <c r="K132" s="8">
         <v>6</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L132" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="M123" s="8" t="s">
+      <c r="M132" s="8" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="str">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="str">
         <f>"05.08.2023"</f>
         <v>05.08.2023</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B133" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D133" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E133" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F124" s="8" t="s">
+      <c r="F133" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G133" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K124" s="8">
-        <v>1</v>
-      </c>
-      <c r="L124" s="8" t="s">
+      <c r="K133" s="8">
+        <v>1</v>
+      </c>
+      <c r="L133" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M124" s="8" t="s">
+      <c r="M133" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="N124" s="9" t="s">
+      <c r="N133" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="str">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B134" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F125" s="8" t="s">
+      <c r="F134" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G125" s="8" t="s">
+      <c r="G134" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K125" s="8">
-        <v>1</v>
-      </c>
-      <c r="L125" s="8" t="s">
+      <c r="K134" s="8">
+        <v>1</v>
+      </c>
+      <c r="L134" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M125" s="8" t="s">
+      <c r="M134" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="str">
-        <f>"12.04.2023"</f>
-        <v>12.04.2023</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H126" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="K126" s="8">
-        <v>1</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="M126" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N126" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="P126" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="str">
-        <f>"12.04.2023"</f>
-        <v>12.04.2023</v>
-      </c>
-      <c r="K127" s="8">
-        <v>2</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M127" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N127" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="P127" s="8" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="str">
-        <f>"12.04.2023"</f>
-        <v>12.04.2023</v>
-      </c>
-      <c r="K128" s="8">
-        <v>3</v>
-      </c>
-      <c r="L128" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="M128" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="N128" s="9" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="str">
-        <f>"12.04.2023"</f>
-        <v>12.04.2023</v>
-      </c>
-      <c r="K129" s="8">
-        <v>4</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="M129" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="N129" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="P129" s="8" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -5213,9 +5350,9 @@
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C125" r:id="rId5"/>
-    <hyperlink ref="C115" r:id="rId6"/>
-    <hyperlink ref="C124" r:id="rId7"/>
+    <hyperlink ref="C134" r:id="rId5"/>
+    <hyperlink ref="C119" r:id="rId6"/>
+    <hyperlink ref="C133" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="495">
   <si>
     <t>date</t>
   </si>
@@ -1503,6 +1503,9 @@
   </si>
   <si>
     <t>Organizer of two sessions and invited talks</t>
+  </si>
+  <si>
+    <t>5_Schloemer.pdf</t>
   </si>
 </sst>
 </file>
@@ -1895,9 +1898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A119" sqref="A119:XFD122"/>
+      <selection pane="bottomLeft" activeCell="O124" sqref="O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5106,6 +5109,9 @@
       <c r="N123" s="9" t="s">
         <v>487</v>
       </c>
+      <c r="O123" s="8" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="497">
   <si>
     <t>date</t>
   </si>
@@ -1506,6 +1506,12 @@
   </si>
   <si>
     <t>5_Schloemer.pdf</t>
+  </si>
+  <si>
+    <t>Follow-up quantification in time to event clinical trials</t>
+  </si>
+  <si>
+    <t>1_Grinsted.pdf</t>
   </si>
 </sst>
 </file>
@@ -1900,7 +1906,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O124" sqref="O124"/>
+      <selection pane="bottomLeft" activeCell="O127" sqref="O127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5205,6 +5211,12 @@
       <c r="M127" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="N127" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="O127" s="8" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="499">
   <si>
     <t>date</t>
   </si>
@@ -1512,6 +1512,12 @@
   </si>
   <si>
     <t>1_Grinsted.pdf</t>
+  </si>
+  <si>
+    <t>How could we handle the occurrence of death when analyzing continuous endpoints? An example of PRO endpoints</t>
+  </si>
+  <si>
+    <t>6_Skaltsa.pdf</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O127" sqref="O127"/>
+      <selection pane="bottomLeft" activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5233,7 +5239,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -5248,7 +5254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -5263,7 +5269,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -5278,7 +5284,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
@@ -5292,8 +5298,14 @@
       <c r="M132" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N132" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="O132" s="8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="str">
         <f>"05.08.2023"</f>
         <v>05.08.2023</v>
@@ -5329,7 +5341,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="501">
   <si>
     <t>date</t>
   </si>
@@ -1518,6 +1518,12 @@
   </si>
   <si>
     <t>6_Skaltsa.pdf</t>
+  </si>
+  <si>
+    <t>2_Englert.pdf</t>
+  </si>
+  <si>
+    <t>Estimands in oncology early clinical developmentclinical development</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1918,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N123" sqref="N123"/>
+      <selection pane="bottomLeft" activeCell="N129" sqref="N129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,6 +5244,12 @@
       <c r="M128" s="8" t="s">
         <v>441</v>
       </c>
+      <c r="N128" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="O128" s="8" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="503">
   <si>
     <t>date</t>
   </si>
@@ -1524,6 +1524,12 @@
   </si>
   <si>
     <t>Estimands in oncology early clinical developmentclinical development</t>
+  </si>
+  <si>
+    <t>5_Wang.pdf</t>
+  </si>
+  <si>
+    <t>Treatment Switching Estimation based on Principal Stratification</t>
   </si>
 </sst>
 </file>
@@ -1918,7 +1924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N129" sqref="N129"/>
+      <selection pane="bottomLeft" activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5295,6 +5301,12 @@
       <c r="M131" s="8" t="s">
         <v>443</v>
       </c>
+      <c r="N131" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="O131" s="8" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="505">
   <si>
     <t>date</t>
   </si>
@@ -1530,6 +1530,12 @@
   </si>
   <si>
     <t>Treatment Switching Estimation based on Principal Stratification</t>
+  </si>
+  <si>
+    <t>8_Roychoudhury.pdf</t>
+  </si>
+  <si>
+    <t>6_Wang.pdf</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1930,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N132" sqref="N132"/>
+      <selection pane="bottomLeft" activeCell="O125" sqref="O125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5155,6 +5161,9 @@
       <c r="N124" s="9" t="s">
         <v>488</v>
       </c>
+      <c r="O124" s="8" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="str">
@@ -5195,6 +5204,9 @@
       </c>
       <c r="N126" s="9" t="s">
         <v>484</v>
+      </c>
+      <c r="O126" s="8" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="506">
   <si>
     <t>date</t>
   </si>
@@ -1536,6 +1536,9 @@
   </si>
   <si>
     <t>6_Wang.pdf</t>
+  </si>
+  <si>
+    <t>1_Kan.pdf</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1933,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O125" sqref="O125"/>
+      <selection pane="bottomLeft" activeCell="O120" sqref="O120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5060,6 +5063,9 @@
       <c r="N119" s="9" t="s">
         <v>461</v>
       </c>
+      <c r="O119" s="8" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="506">
   <si>
     <t>date</t>
   </si>
@@ -1931,9 +1931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O120" sqref="O120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5382,6 +5382,9 @@
       <c r="N133" s="9" t="s">
         <v>457</v>
       </c>
+      <c r="O133" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="str">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -1932,8 +1932,8 @@
   <dimension ref="A1:P134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="511">
   <si>
     <t>date</t>
   </si>
@@ -1539,6 +1539,21 @@
   </si>
   <si>
     <t>1_Kan.pdf</t>
+  </si>
+  <si>
+    <t>http://efspiworkshop.org/</t>
+  </si>
+  <si>
+    <t>Sarwar Mozumder &amp; Bjoern Bornkampp</t>
+  </si>
+  <si>
+    <t>AstraZeneca &amp; Novartis</t>
+  </si>
+  <si>
+    <t>Conditional and Unconditional treatment effects in randomized clinical trials: Estimands , Estimation, and Interpretation</t>
+  </si>
+  <si>
+    <t>1_Mozumder.pdf</t>
   </si>
 </sst>
 </file>
@@ -1929,11 +1944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P134"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5386,37 +5401,76 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="str">
+    <row r="134" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="str">
+        <f>"13.09.2023"</f>
+        <v>13.09.2023</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K134" s="8">
+        <v>1</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="O134" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B135" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D135" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F135" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G135" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K134" s="8">
-        <v>1</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M134" s="8" t="s">
-        <v>23</v>
+      <c r="K135" s="8">
+        <v>1</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5425,7 +5479,7 @@
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C134" r:id="rId5"/>
+    <hyperlink ref="C135" r:id="rId5"/>
     <hyperlink ref="C119" r:id="rId6"/>
     <hyperlink ref="C133" r:id="rId7"/>
   </hyperlinks>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="524">
   <si>
     <t>date</t>
   </si>
@@ -1554,6 +1554,45 @@
   </si>
   <si>
     <t>1_Mozumder.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ASA Biopharmaceutical Section Regulatory-Industry Statistics Workshop</t>
+  </si>
+  <si>
+    <t>https://ww2.amstat.org/meetings/biop/2023/</t>
+  </si>
+  <si>
+    <t>Rockville</t>
+  </si>
+  <si>
+    <t>Panel discussion</t>
+  </si>
+  <si>
+    <t>Qing Xu</t>
+  </si>
+  <si>
+    <t>Janet Wittes</t>
+  </si>
+  <si>
+    <t>Hongtao Zhang</t>
+  </si>
+  <si>
+    <t>Clinical Outcomes Solutions</t>
+  </si>
+  <si>
+    <t>Wittes LLC</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Yeh-Fong Chen</t>
+  </si>
+  <si>
+    <t>Contributor to panel discussion</t>
+  </si>
+  <si>
+    <t>Chair of panel discussion</t>
   </si>
 </sst>
 </file>
@@ -1944,11 +1983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P135"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P134" sqref="P134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A136" sqref="A136:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,36 +5479,182 @@
         <v>510</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="str">
+    <row r="135" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="str">
+        <f>"29.09.2023"</f>
+        <v>29.09.2023</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="K135" s="8">
+        <v>1</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="O135" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="str">
+        <f t="shared" ref="A136:A140" si="2">"29.09.2023"</f>
+        <v>29.09.2023</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="K136" s="8">
+        <v>2</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M136" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N136" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="O136" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>29.09.2023</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="K137" s="8">
+        <v>3</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="O137" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>29.09.2023</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="K138" s="8">
+        <v>4</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="M138" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="N138" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="O138" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>29.09.2023</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="K139" s="8">
+        <v>5</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="N139" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="O139" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>29.09.2023</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="K140" s="8">
+        <v>6</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="M140" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N140" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B141" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C141" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F141" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G141" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K135" s="8">
+      <c r="K141" s="8">
         <v>1</v>
       </c>
-      <c r="L135" s="8" t="s">
+      <c r="L141" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M135" s="8" t="s">
+      <c r="M141" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5479,7 +5664,7 @@
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C135" r:id="rId5"/>
+    <hyperlink ref="C141" r:id="rId5"/>
     <hyperlink ref="C119" r:id="rId6"/>
     <hyperlink ref="C133" r:id="rId7"/>
   </hyperlinks>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="542">
   <si>
     <t>date</t>
   </si>
@@ -1593,6 +1593,60 @@
   </si>
   <si>
     <t>Chair of panel discussion</t>
+  </si>
+  <si>
+    <t>Seminar of the Basel Biometric Society: Estimands in Early Development (ED) across Therapeutic Areas</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/upcoming/20231016/agenda.pdf</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>Janssen</t>
+  </si>
+  <si>
+    <t>Why jeopardize clarity, consistency, and coherency in early phase? A plea for introducing estimand focused discussions to early development acknowledging similarities and differences as compared to late development.</t>
+  </si>
+  <si>
+    <t>Karin Meiser</t>
+  </si>
+  <si>
+    <t>Using estimands in PoC studies for infectious diseases: what did we consider?</t>
+  </si>
+  <si>
+    <t>David Wright</t>
+  </si>
+  <si>
+    <t>Astra Zeneca</t>
+  </si>
+  <si>
+    <t>Examples of opportunities to use the estimand framework in early Phase studies</t>
+  </si>
+  <si>
+    <t>Francois Mercier</t>
+  </si>
+  <si>
+    <t>Dealing with treatment discontinuation in dose escalation Phase 1 oncology clinical trials</t>
+  </si>
+  <si>
+    <t>Rob Hemmings</t>
+  </si>
+  <si>
+    <t>Consilium Scientific</t>
+  </si>
+  <si>
+    <t>Estimands in Early Development – an external perspective</t>
+  </si>
+  <si>
+    <t>Optimizing Estimands with Optimus</t>
+  </si>
+  <si>
+    <t>Thomas Gwise</t>
+  </si>
+  <si>
+    <t>former FDA</t>
   </si>
 </sst>
 </file>
@@ -1983,11 +2037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A136" sqref="A136:A140"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N147" sqref="N147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5625,38 +5679,172 @@
         <v>523</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="str">
+        <f>"16.10.2023"</f>
+        <v>16.10.2023</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="K141" s="8">
+        <v>1</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="str">
+        <f t="shared" ref="A142:A146" si="3">"16.10.2023"</f>
+        <v>16.10.2023</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="K142" s="8">
+        <v>2</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N142" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>16.10.2023</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="K143" s="8">
+        <v>3</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="N143" s="9" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>16.10.2023</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="K144" s="8">
+        <v>4</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="M144" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>16.10.2023</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="K145" s="8">
+        <v>5</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="N145" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>16.10.2023</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="K146" s="8">
+        <v>6</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="M146" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="N146" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B147" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E147" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F147" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="G141" s="8" t="s">
+      <c r="G147" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K141" s="8">
+      <c r="K147" s="8">
         <v>1</v>
       </c>
-      <c r="L141" s="8" t="s">
+      <c r="L147" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M141" s="8" t="s">
+      <c r="M147" s="8" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M153"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5664,7 +5852,7 @@
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C141" r:id="rId5"/>
+    <hyperlink ref="C147" r:id="rId5"/>
     <hyperlink ref="C119" r:id="rId6"/>
     <hyperlink ref="C133" r:id="rId7"/>
   </hyperlinks>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="550">
   <si>
     <t>date</t>
   </si>
@@ -1647,6 +1647,30 @@
   </si>
   <si>
     <t>former FDA</t>
+  </si>
+  <si>
+    <t>APF Workshop: Early phase clinical development -- estimands, biomarkers and decision making</t>
+  </si>
+  <si>
+    <t>https://www.biometrische-gesellschaft.de/fileadmin/AG_Daten/PharamzeutischeForschung/PDFs/Agenda_APF_77_Darmstadt_Nov_2023.pdf</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Estimand Framework: A New Lens for Single-Arm Early Clinical Trials in Oncology</t>
+  </si>
+  <si>
+    <t>Anja Victor</t>
+  </si>
+  <si>
+    <t>Merck KGaA</t>
+  </si>
+  <si>
+    <t>Will you learn more from your oncology dose escalation by using the estimands framework?</t>
+  </si>
+  <si>
+    <t>Estimand framework -- do you know the research question?</t>
   </si>
 </sst>
 </file>
@@ -2037,11 +2061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P153"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N147" sqref="N147"/>
+      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5772,7 +5796,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="str">
         <f t="shared" si="3"/>
         <v>16.10.2023</v>
@@ -5791,7 +5815,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="str">
         <f t="shared" si="3"/>
         <v>16.10.2023</v>
@@ -5810,7 +5834,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
@@ -5842,9 +5866,73 @@
       <c r="M147" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M153"/>
+      <c r="N147" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="O147" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="str">
+        <f>"24.11.2023"</f>
+        <v>24.11.2023</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K148" s="8">
+        <v>1</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="M148" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="str">
+        <f>"24.11.2023"</f>
+        <v>24.11.2023</v>
+      </c>
+      <c r="B149" s="8"/>
+      <c r="G149" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K149" s="8">
+        <v>2</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="N149" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M154"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5855,8 +5943,9 @@
     <hyperlink ref="C147" r:id="rId5"/>
     <hyperlink ref="C119" r:id="rId6"/>
     <hyperlink ref="C133" r:id="rId7"/>
+    <hyperlink ref="C148" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="552">
   <si>
     <t>date</t>
   </si>
@@ -1671,6 +1671,12 @@
   </si>
   <si>
     <t>Estimand framework -- do you know the research question?</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -2063,9 +2069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5931,6 +5937,27 @@
         <v>545</v>
       </c>
     </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="str">
+        <f>"16.06.2024"</f>
+        <v>16.06.2024</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M154"/>
     </row>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="557">
   <si>
     <t>date</t>
   </si>
@@ -1677,6 +1677,21 @@
   </si>
   <si>
     <t>Netherlands</t>
+  </si>
+  <si>
+    <t>FDA / Lungevity Project Significant</t>
+  </si>
+  <si>
+    <t>Impact of Cross-over in the Evaluation of Overall Survival in cancer RCTs</t>
+  </si>
+  <si>
+    <t>Silver Spring</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/about-fda/oncology-center-excellence/project-significant-statistics-cancer-trials</t>
+  </si>
+  <si>
+    <t>https://numbersman77.github.io/kasparrufibach/files/talks/20231012_Rufibach_Lungevity_crossover.pdf</t>
   </si>
 </sst>
 </file>
@@ -2069,9 +2084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5207,7 +5222,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
-        <f t="shared" ref="A120:A126" si="0">"31.05.2023"</f>
+        <f>"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
       <c r="C120" s="10"/>
@@ -5226,7 +5241,7 @@
     </row>
     <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
       <c r="C121" s="10"/>
@@ -5267,7 +5282,7 @@
     </row>
     <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
       <c r="C123" s="10"/>
@@ -5289,7 +5304,7 @@
     </row>
     <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
       <c r="C124" s="10"/>
@@ -5311,7 +5326,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
       <c r="C125" s="10"/>
@@ -5333,7 +5348,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
       <c r="C126" s="10"/>
@@ -5394,7 +5409,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
-        <f t="shared" ref="A128:A132" si="1">"11.06.2023"</f>
+        <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K128" s="8">
@@ -5413,9 +5428,9 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K129" s="8">
@@ -5428,9 +5443,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K130" s="8">
@@ -5443,9 +5458,9 @@
         <v>387</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K131" s="8">
@@ -5464,9 +5479,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f>"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="K132" s="8">
@@ -5485,7 +5500,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="str">
         <f>"05.08.2023"</f>
         <v>05.08.2023</v>
@@ -5524,7 +5539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="str">
         <f>"13.09.2023"</f>
         <v>13.09.2023</v>
@@ -5563,7 +5578,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="str">
         <f>"29.09.2023"</f>
         <v>29.09.2023</v>
@@ -5602,9 +5617,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
-        <f t="shared" ref="A136:A140" si="2">"29.09.2023"</f>
+        <f>"29.09.2023"</f>
         <v>29.09.2023</v>
       </c>
       <c r="C136" s="10"/>
@@ -5624,9 +5639,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>"29.09.2023"</f>
         <v>29.09.2023</v>
       </c>
       <c r="C137" s="10"/>
@@ -5646,9 +5661,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>"29.09.2023"</f>
         <v>29.09.2023</v>
       </c>
       <c r="C138" s="10"/>
@@ -5668,9 +5683,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>"29.09.2023"</f>
         <v>29.09.2023</v>
       </c>
       <c r="C139" s="10"/>
@@ -5690,9 +5705,9 @@
         <v>395</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>"29.09.2023"</f>
         <v>29.09.2023</v>
       </c>
       <c r="C140" s="10"/>
@@ -5709,192 +5724,192 @@
         <v>523</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="str">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="str">
+        <f>"12.10.2023"</f>
+        <v>12.10.2023</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K141" s="8">
+        <v>1</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N141" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="P141" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="str">
         <f>"16.10.2023"</f>
         <v>16.10.2023</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B142" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E142" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F141" s="8" t="s">
+      <c r="F142" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G141" s="8" t="s">
+      <c r="G142" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="K141" s="8">
+      <c r="K142" s="8">
         <v>1</v>
       </c>
-      <c r="L141" s="8" t="s">
+      <c r="L142" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="M141" s="8" t="s">
+      <c r="M142" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="N141" s="9" t="s">
+      <c r="N142" s="9" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="str">
-        <f t="shared" ref="A142:A146" si="3">"16.10.2023"</f>
-        <v>16.10.2023</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="K142" s="8">
-        <v>2</v>
-      </c>
-      <c r="L142" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="M142" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N142" s="9" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>"16.10.2023"</f>
         <v>16.10.2023</v>
       </c>
       <c r="C143" s="10"/>
       <c r="K143" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>532</v>
+        <v>27</v>
       </c>
       <c r="N143" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>"16.10.2023"</f>
         <v>16.10.2023</v>
       </c>
       <c r="C144" s="10"/>
       <c r="K144" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L144" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M144" s="8" t="s">
-        <v>23</v>
+        <v>532</v>
       </c>
       <c r="N144" s="9" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>"16.10.2023"</f>
         <v>16.10.2023</v>
       </c>
       <c r="C145" s="10"/>
       <c r="K145" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M145" s="8" t="s">
-        <v>537</v>
+        <v>23</v>
       </c>
       <c r="N145" s="9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>"16.10.2023"</f>
         <v>16.10.2023</v>
       </c>
       <c r="C146" s="10"/>
       <c r="K146" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L146" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="M146" s="8" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="N146" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="str">
+        <f>"16.10.2023"</f>
+        <v>16.10.2023</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="K147" s="8">
+        <v>6</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="M147" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="N147" s="9" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B148" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C148" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D148" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E147" s="8" t="s">
+      <c r="E148" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K147" s="8">
-        <v>1</v>
-      </c>
-      <c r="L147" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M147" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N147" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="O147" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="str">
-        <f>"24.11.2023"</f>
-        <v>24.11.2023</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="F148" s="8" t="s">
         <v>338</v>
@@ -5906,55 +5921,94 @@
         <v>1</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>546</v>
+        <v>85</v>
       </c>
       <c r="M148" s="8" t="s">
-        <v>547</v>
+        <v>27</v>
       </c>
       <c r="N148" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="O148" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="str">
         <f>"24.11.2023"</f>
         <v>24.11.2023</v>
       </c>
-      <c r="B149" s="8"/>
+      <c r="B149" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="G149" s="8" t="s">
         <v>99</v>
       </c>
       <c r="K149" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>173</v>
+        <v>546</v>
       </c>
       <c r="M149" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="N149" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
+      </c>
+      <c r="N149" s="9" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
+        <f>"24.11.2023"</f>
+        <v>24.11.2023</v>
+      </c>
+      <c r="B150" s="8"/>
+      <c r="G150" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K150" s="8">
+        <v>2</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M150" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="N150" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="8" t="str">
         <f>"16.06.2024"</f>
         <v>16.06.2024</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B151" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D150" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="E151" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="F151" s="8" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5962,15 +6016,18 @@
       <c r="M154"/>
     </row>
   </sheetData>
+  <sortState ref="A2:P154">
+    <sortCondition ref="A2:A154"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="H77" r:id="rId1"/>
     <hyperlink ref="C51" r:id="rId2"/>
     <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
     <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C147" r:id="rId5"/>
+    <hyperlink ref="C148" r:id="rId5"/>
     <hyperlink ref="C119" r:id="rId6"/>
     <hyperlink ref="C133" r:id="rId7"/>
-    <hyperlink ref="C148" r:id="rId8"/>
+    <hyperlink ref="C149" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="557">
   <si>
     <t>date</t>
   </si>
@@ -2085,8 +2085,8 @@
   <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G166" sqref="G166"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" ref="A119:A126" si="0">"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -5222,7 +5222,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
       <c r="C120" s="10"/>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
       <c r="C121" s="10"/>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
       <c r="C122" s="10"/>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
       <c r="C123" s="10"/>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
       <c r="C124" s="10"/>
@@ -5326,7 +5326,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
       <c r="C125" s="10"/>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
-        <f>"31.05.2023"</f>
+        <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
       <c r="C126" s="10"/>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="str">
-        <f>"11.06.2023"</f>
+        <f t="shared" ref="A127:A132" si="1">"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
       <c r="B127" s="9" t="s">
@@ -5409,7 +5409,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
-        <f>"11.06.2023"</f>
+        <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
       <c r="K128" s="8">
@@ -5430,7 +5430,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="str">
-        <f>"11.06.2023"</f>
+        <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
       <c r="K129" s="8">
@@ -5445,7 +5445,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
-        <f>"11.06.2023"</f>
+        <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
       <c r="K130" s="8">
@@ -5460,7 +5460,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="str">
-        <f>"11.06.2023"</f>
+        <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
       <c r="K131" s="8">
@@ -5481,7 +5481,7 @@
     </row>
     <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
-        <f>"11.06.2023"</f>
+        <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
       <c r="K132" s="8">
@@ -5580,7 +5580,7 @@
     </row>
     <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="str">
-        <f>"29.09.2023"</f>
+        <f t="shared" ref="A135:A140" si="2">"29.09.2023"</f>
         <v>29.09.2023</v>
       </c>
       <c r="B135" s="9" t="s">
@@ -5619,7 +5619,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
-        <f>"29.09.2023"</f>
+        <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
       <c r="C136" s="10"/>
@@ -5641,7 +5641,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="str">
-        <f>"29.09.2023"</f>
+        <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
       <c r="C137" s="10"/>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
-        <f>"29.09.2023"</f>
+        <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
       <c r="C138" s="10"/>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="str">
-        <f>"29.09.2023"</f>
+        <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
       <c r="C139" s="10"/>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
-        <f>"29.09.2023"</f>
+        <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
       <c r="C140" s="10"/>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="142" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="str">
-        <f>"16.10.2023"</f>
+        <f t="shared" ref="A142:A147" si="3">"16.10.2023"</f>
         <v>16.10.2023</v>
       </c>
       <c r="B142" s="9" t="s">
@@ -5801,7 +5801,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="str">
-        <f>"16.10.2023"</f>
+        <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
       <c r="C143" s="10"/>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="str">
-        <f>"16.10.2023"</f>
+        <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
       <c r="C144" s="10"/>
@@ -5839,7 +5839,7 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="str">
-        <f>"16.10.2023"</f>
+        <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
       <c r="C145" s="10"/>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="str">
-        <f>"16.10.2023"</f>
+        <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
       <c r="C146" s="10"/>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="str">
-        <f>"16.10.2023"</f>
+        <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
       <c r="C147" s="10"/>
@@ -5989,6 +5989,9 @@
       </c>
       <c r="N150" s="8" t="s">
         <v>545</v>
+      </c>
+      <c r="O150" s="8" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="569">
   <si>
     <t>date</t>
   </si>
@@ -1692,6 +1692,42 @@
   </si>
   <si>
     <t>https://numbersman77.github.io/kasparrufibach/files/talks/20231012_Rufibach_Lungevity_crossover.pdf</t>
+  </si>
+  <si>
+    <t>Looking back on our "Estimands in Oncology" Working Group Journey</t>
+  </si>
+  <si>
+    <t>Tobias Mütze &amp; Stefan Englert</t>
+  </si>
+  <si>
+    <t>Novartis &amp; J&amp;J</t>
+  </si>
+  <si>
+    <t>Re-Thinking treatment effect measure in clinical trials with time-to-event outcomes and competing risks</t>
+  </si>
+  <si>
+    <t>2_Muetze.pdf</t>
+  </si>
+  <si>
+    <t>Sarwar Mozumder</t>
+  </si>
+  <si>
+    <t>Outcome of Survey on Current Standards and Implementation of Covariate Adjusted and Stratified Analyses</t>
+  </si>
+  <si>
+    <t>3_Mozumder.pdf</t>
+  </si>
+  <si>
+    <t>Can the Estimand Framework help improve the analysis of adverse events of special interest?</t>
+  </si>
+  <si>
+    <t>4_Lopez.pdf</t>
+  </si>
+  <si>
+    <t>Pedro López-Romero</t>
+  </si>
+  <si>
+    <t>Currently no appearances of the WG lined up.</t>
   </si>
 </sst>
 </file>
@@ -2082,11 +2118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P154"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A151" sqref="A151"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6014,9 +6050,105 @@
       <c r="F151" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M154"/>
+      <c r="G151" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K151" s="8">
+        <v>1</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M151" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="O151" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="8" t="str">
+        <f t="shared" ref="A152:A154" si="4">"16.06.2024"</f>
+        <v>16.06.2024</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K152" s="8">
+        <v>2</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="M152" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="N152" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="O152" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>16.06.2024</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K153" s="8">
+        <v>3</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N153" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="O153" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>16.06.2024</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K154" s="8">
+        <v>4</v>
+      </c>
+      <c r="L154" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="M154" t="s">
+        <v>27</v>
+      </c>
+      <c r="N154" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="O154" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="str">
+        <f>"31.12.2050"</f>
+        <v>31.12.2050</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:P154">

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -2120,9 +2120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <selection pane="bottomLeft" activeCell="L163" sqref="L163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/seminars.xlsx
+++ b/data/seminars.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0653EE4-B6D2-4A5A-B478-11EA1823A44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3045" yWindow="45" windowWidth="25755" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="579">
   <si>
     <t>date</t>
   </si>
@@ -1598,9 +1610,6 @@
     <t>Seminar of the Basel Biometric Society: Estimands in Early Development (ED) across Therapeutic Areas</t>
   </si>
   <si>
-    <t>https://baselbiometrics.github.io/home/docs/upcoming/20231016/agenda.pdf</t>
-  </si>
-  <si>
     <t>Seminar</t>
   </si>
   <si>
@@ -1728,12 +1737,45 @@
   </si>
   <si>
     <t>Currently no appearances of the WG lined up.</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/agenda.pdf</t>
+  </si>
+  <si>
+    <t>Lilla di Scala</t>
+  </si>
+  <si>
+    <t>Janssen, BBS</t>
+  </si>
+  <si>
+    <t>Welcome, scene setting and “Let’s extend the conversation on estimands to Early Development”</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/1_DiScala.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/2_Englert.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/3_Meiser.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/4_Wright.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/5_Mercier.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/6_Hemmings.pdf</t>
+  </si>
+  <si>
+    <t>https://baselbiometrics.github.io/home/docs/talks/20231016/7_Gwise.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1795,15 +1837,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1815,32 +1857,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2117,2407 +2150,2407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L163" sqref="L163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="136.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="84.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="84.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="72.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="84.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="84.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="72.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="str">
+      <c r="A2" s="10" t="str">
         <f>"15.02.2019"</f>
         <v>15.02.2019</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>3</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>4</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>2</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>3</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>4</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>2</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <v>2</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="7">
         <v>3</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>4</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="7">
         <v>1</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="7">
         <v>1</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="7">
         <v>2</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="7">
         <v>3</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="7">
         <v>1</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="7">
         <v>1</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="7" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="7">
         <v>1</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="8" t="s">
+      <c r="P25" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="7">
         <v>1</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="7">
         <v>2</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="7">
         <v>1</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="8" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="7">
         <v>1</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="7">
         <v>2</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="7">
         <v>3</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="7">
         <v>4</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="7">
         <v>5</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>6</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="7">
         <v>7</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O35" s="8" t="s">
+      <c r="O35" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="7">
         <v>1</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="O36" s="8" t="s">
+      <c r="O36" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K37" s="8">
+      <c r="K37" s="7">
         <v>2</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M37" s="8" t="s">
+      <c r="M37" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="7">
         <v>1</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="N38" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="O38" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="7">
         <v>1</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="8" t="s">
+      <c r="M39" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N39" s="9" t="s">
+      <c r="N39" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="O39" s="8" t="s">
+      <c r="O39" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="7">
         <v>2</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="O40" s="8" t="s">
+      <c r="O40" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K41" s="8">
+      <c r="K41" s="7">
         <v>3</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="N41" s="9" t="s">
+      <c r="N41" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="O41" s="8" t="s">
+      <c r="O41" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="7">
         <v>4</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="O42" s="8" t="s">
+      <c r="O42" s="7" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K43" s="8">
+      <c r="K43" s="7">
         <v>5</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="N43" s="9" t="s">
+      <c r="N43" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="O43" s="8" t="s">
+      <c r="O43" s="7" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="7">
         <v>6</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="N44" s="9" t="s">
+      <c r="N44" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="O44" s="8" t="s">
+      <c r="O44" s="7" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="7">
         <v>7</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="N45" s="9" t="s">
+      <c r="N45" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="O45" s="8" t="s">
+      <c r="O45" s="7" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="7">
         <v>8</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="L46" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="O46" s="8" t="s">
+      <c r="O46" s="7" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="7">
         <v>9</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="L47" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M47" s="8" t="s">
+      <c r="M47" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="N47" s="9" t="s">
+      <c r="N47" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="O47" s="8" t="s">
+      <c r="O47" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="7">
         <v>10</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="N48" s="9" t="s">
+      <c r="N48" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="O48" s="8" t="s">
+      <c r="O48" s="7" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K49" s="8">
+      <c r="K49" s="7">
         <v>1</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N49" s="9" t="s">
+      <c r="N49" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="O49" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K50" s="8">
+      <c r="K50" s="7">
         <v>1</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N50" s="9" t="s">
+      <c r="N50" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="O50" s="8" t="s">
+      <c r="O50" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K51" s="8">
+      <c r="K51" s="7">
         <v>1</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="N51" s="9" t="s">
+      <c r="N51" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K52" s="7">
         <v>1</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="N52" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="O52" s="8" t="s">
+      <c r="O52" s="7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="7">
         <v>1</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="L53" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M53" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="N53" s="9" t="s">
+      <c r="N53" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="O53" s="8" t="s">
+      <c r="O53" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="7">
         <v>1</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="L54" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N54" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="O54" s="8" t="s">
+      <c r="O54" s="7" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="7">
         <v>1</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="L55" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="N55" s="9" t="s">
+      <c r="N55" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="O55" s="8" t="s">
+      <c r="O55" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="7">
         <v>1</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="L56" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N56" s="9" t="s">
+      <c r="N56" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="O56" s="8" t="s">
+      <c r="O56" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="7">
         <v>2</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="O57" s="8" t="s">
+      <c r="O57" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="7">
         <v>3</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="L58" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="O58" s="8" t="s">
+      <c r="O58" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="7">
         <v>4</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N59" s="9" t="s">
+      <c r="N59" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="O59" s="8" t="s">
+      <c r="O59" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="7">
         <v>5</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="O60" s="8" t="s">
+      <c r="O60" s="7" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="7">
         <v>1</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O61" s="8" t="s">
+      <c r="O61" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="7">
         <v>2</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="L62" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O62" s="8" t="s">
+      <c r="O62" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="7">
         <v>3</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="L63" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O63" s="8" t="s">
+      <c r="O63" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="7">
         <v>4</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="L64" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O64" s="8" t="s">
+      <c r="O64" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="7">
         <v>5</v>
       </c>
-      <c r="L65" s="8" t="s">
+      <c r="L65" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O65" s="8" t="s">
+      <c r="O65" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="7">
         <v>6</v>
       </c>
-      <c r="L66" s="8" t="s">
+      <c r="L66" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N66" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O66" s="8" t="s">
+      <c r="O66" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="7">
         <v>1</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="L67" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="N67" s="8" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="7">
         <v>2</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="L68" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N68" s="9" t="s">
+      <c r="N68" s="8" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="7">
         <v>3</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="L69" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N69" s="9" t="s">
+      <c r="N69" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O69" s="8" t="s">
+      <c r="O69" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="7">
         <v>4</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="L70" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="N70" s="9" t="s">
+      <c r="N70" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="O70" s="8" t="s">
+      <c r="O70" s="7" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="str">
+      <c r="A71" s="7" t="str">
         <f>"24.08.2021"</f>
         <v>24.08.2021</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="7">
         <v>1</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="8" t="s">
+      <c r="M71" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N71" s="9" t="s">
+      <c r="N71" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="O71" s="8" t="s">
+      <c r="O71" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G72" s="8" t="s">
+      <c r="G72" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="7">
         <v>1</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="N72" s="9" t="s">
+      <c r="N72" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="O72" s="8" t="s">
+      <c r="O72" s="7" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="7">
         <v>2</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="L73" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="N73" s="9" t="s">
+      <c r="N73" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="O73" s="8" t="s">
+      <c r="O73" s="7" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="7">
         <v>3</v>
       </c>
-      <c r="L74" s="8" t="s">
+      <c r="L74" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N74" s="9" t="s">
+      <c r="N74" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="O74" s="8" t="s">
+      <c r="O74" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="7">
         <v>4</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="N75" s="9" t="s">
+      <c r="N75" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="O75" s="7" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K76" s="7">
         <v>5</v>
       </c>
-      <c r="L76" s="8" t="s">
+      <c r="L76" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M76" s="8" t="s">
+      <c r="M76" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N76" s="9" t="s">
+      <c r="N76" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="O76" s="8" t="s">
+      <c r="O76" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="7" t="s">
         <v>264</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="7">
         <v>1</v>
       </c>
-      <c r="L77" s="8" t="s">
+      <c r="L77" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="N77" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O77" s="8" t="s">
+      <c r="O77" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K78" s="7">
         <v>2</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="L78" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="N78" s="9" t="s">
+      <c r="N78" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O78" s="8" t="s">
+      <c r="O78" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K79" s="7">
         <v>3</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="L79" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="N79" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O79" s="8" t="s">
+      <c r="O79" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="7">
         <v>4</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="L80" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N80" s="9" t="s">
+      <c r="N80" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O80" s="8" t="s">
+      <c r="O80" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="7">
         <v>5</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="N81" s="9" t="s">
+      <c r="N81" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O81" s="8" t="s">
+      <c r="O81" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="7">
         <v>6</v>
       </c>
-      <c r="L82" s="8" t="s">
+      <c r="L82" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="N82" s="9" t="s">
+      <c r="N82" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="O82" s="8" t="s">
+      <c r="O82" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K83" s="7">
         <v>1</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="L83" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N83" s="9" t="s">
+      <c r="N83" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="O83" s="8" t="s">
+      <c r="O83" s="7" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K84" s="8">
+      <c r="K84" s="7">
         <v>2</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="L84" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="N84" s="9" t="s">
+      <c r="N84" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="O84" s="8" t="s">
+      <c r="O84" s="7" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="str">
+      <c r="A85" s="7" t="str">
         <f>"16.12.2021"</f>
         <v>16.12.2021</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85" s="7">
         <v>1</v>
       </c>
-      <c r="L85" s="8" t="s">
+      <c r="L85" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M85" s="8" t="s">
+      <c r="M85" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N85" s="9" t="s">
+      <c r="N85" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="O85" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="str">
+      <c r="A86" s="7" t="str">
         <f>"23.03.2022"</f>
         <v>23.03.2022</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K86" s="8">
+      <c r="K86" s="7">
         <v>1</v>
       </c>
-      <c r="L86" s="8" t="s">
+      <c r="L86" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="M86" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N86" s="9" t="s">
+      <c r="N86" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="O86" s="8" t="s">
+      <c r="O86" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="H87" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K87" s="7">
         <v>1</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="L87" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="N87" s="9" t="s">
+      <c r="N87" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="O87" s="8" t="s">
+      <c r="O87" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K88" s="7">
         <v>1</v>
       </c>
-      <c r="L88" s="8" t="s">
+      <c r="L88" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="N88" s="9" t="s">
+      <c r="N88" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K89" s="8">
+      <c r="K89" s="7">
         <v>2</v>
       </c>
-      <c r="L89" s="8" t="s">
+      <c r="L89" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="N89" s="9" t="s">
+      <c r="N89" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="O89" s="8" t="s">
+      <c r="O89" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K90" s="8">
+      <c r="K90" s="7">
         <v>1</v>
       </c>
-      <c r="L90" s="8" t="s">
+      <c r="L90" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N90" s="9" t="s">
+      <c r="N90" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K91" s="7">
         <v>1</v>
       </c>
-      <c r="L91" s="8" t="s">
+      <c r="L91" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="N91" s="9" t="s">
+      <c r="N91" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O91" s="8" t="s">
+      <c r="O91" s="7" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K92" s="8">
+      <c r="K92" s="7">
         <v>2</v>
       </c>
       <c r="L92" s="2" t="s">
@@ -4527,15 +4560,15 @@
       <c r="N92" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="O92" s="8" t="s">
+      <c r="O92" s="7" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K93" s="7">
         <v>3</v>
       </c>
       <c r="L93" s="3" t="s">
@@ -4545,15 +4578,15 @@
       <c r="N93" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="O93" s="8" t="s">
+      <c r="O93" s="7" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K94" s="8">
+      <c r="K94" s="7">
         <v>4</v>
       </c>
       <c r="L94" s="3" t="s">
@@ -4563,15 +4596,15 @@
       <c r="N94" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="O94" s="8" t="s">
+      <c r="O94" s="7" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K95" s="8">
+      <c r="K95" s="7">
         <v>5</v>
       </c>
       <c r="L95" s="3" t="s">
@@ -4581,15 +4614,15 @@
       <c r="N95" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="O95" s="8" t="s">
+      <c r="O95" s="7" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K96" s="8">
+      <c r="K96" s="7">
         <v>6</v>
       </c>
       <c r="L96" s="3" t="s">
@@ -4599,248 +4632,248 @@
       <c r="N96" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="O96" s="8" t="s">
+      <c r="O96" s="7" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K97" s="8">
+      <c r="K97" s="7">
         <v>1</v>
       </c>
-      <c r="L97" s="8" t="s">
+      <c r="L97" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="N97" s="9" t="s">
+      <c r="N97" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="G98" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K98" s="8">
+      <c r="K98" s="7">
         <v>1</v>
       </c>
-      <c r="L98" s="8" t="s">
+      <c r="L98" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="N98" s="9" t="s">
+      <c r="N98" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="O98" s="8" t="s">
+      <c r="O98" s="7" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K99" s="8">
+      <c r="K99" s="7">
         <v>1</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="L99" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="N99" s="9" t="s">
+      <c r="N99" s="8" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="8">
+      <c r="K100" s="7">
         <v>1</v>
       </c>
-      <c r="L100" s="8" t="s">
+      <c r="L100" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="9" t="s">
+      <c r="N100" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="O100" s="8" t="s">
+      <c r="O100" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K101" s="8">
+      <c r="K101" s="7">
         <v>1</v>
       </c>
-      <c r="L101" s="8" t="s">
+      <c r="L101" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N101" s="9" t="s">
+      <c r="N101" s="8" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G102" s="8" t="s">
+      <c r="G102" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H102" s="8" t="s">
+      <c r="H102" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="K102" s="8">
+      <c r="K102" s="7">
         <v>1</v>
       </c>
-      <c r="L102" s="8" t="s">
+      <c r="L102" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="N102" s="9" t="s">
+      <c r="N102" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="O102" s="8" t="s">
+      <c r="O102" s="7" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K103" s="8">
+      <c r="K103" s="7">
         <v>1</v>
       </c>
-      <c r="L103" s="8" t="s">
+      <c r="L103" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="M103" s="8" t="s">
+      <c r="M103" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N103" s="9" t="s">
+      <c r="N103" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="O103" s="8" t="s">
+      <c r="O103" s="7" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K104" s="8">
+      <c r="K104" s="7">
         <v>2</v>
       </c>
       <c r="L104" s="2" t="s">
@@ -4852,15 +4885,15 @@
       <c r="N104" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="O104" s="8" t="s">
+      <c r="O104" s="7" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K105" s="8">
+      <c r="K105" s="7">
         <v>3</v>
       </c>
       <c r="L105" s="4" t="s">
@@ -4872,118 +4905,118 @@
       <c r="N105" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="O105" s="8" t="s">
+      <c r="O105" s="7" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K106" s="8">
+      <c r="K106" s="7">
         <v>4</v>
       </c>
-      <c r="L106" s="13" t="s">
+      <c r="L106" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M106" s="4"/>
-      <c r="N106" s="7" t="s">
+      <c r="N106" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="O106" s="8" t="s">
+      <c r="O106" s="7" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K107" s="8">
+      <c r="K107" s="7">
         <v>1</v>
       </c>
-      <c r="L107" s="8" t="s">
+      <c r="L107" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="N107" s="9" t="s">
+      <c r="N107" s="8" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G108" s="8" t="s">
+      <c r="G108" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K108" s="8">
+      <c r="K108" s="7">
         <v>1</v>
       </c>
-      <c r="L108" s="8" t="s">
+      <c r="L108" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="N108" s="9" t="s">
+      <c r="N108" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="O108" s="8" t="s">
+      <c r="O108" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="K109" s="8">
+      <c r="K109" s="7">
         <v>1</v>
       </c>
       <c r="L109" s="5" t="s">
@@ -4995,1174 +5028,1214 @@
       <c r="N109" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="7" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K110" s="8">
+      <c r="K110" s="7">
         <v>2</v>
       </c>
-      <c r="L110" s="7" t="s">
+      <c r="L110" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="M110" s="7" t="s">
+      <c r="M110" s="3" t="s">
         <v>407</v>
       </c>
       <c r="N110" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="O110" s="11" t="s">
+      <c r="O110" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K111" s="8">
+      <c r="K111" s="7">
         <v>3</v>
       </c>
-      <c r="L111" s="7" t="s">
+      <c r="L111" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="M111" s="7" t="s">
+      <c r="M111" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N111" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="O111" s="11" t="s">
+      <c r="O111" s="7" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K112" s="8">
+      <c r="K112" s="7">
         <v>4</v>
       </c>
-      <c r="L112" s="7" t="s">
+      <c r="L112" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="M112" s="7" t="s">
+      <c r="M112" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N112" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="O112" s="11" t="s">
+      <c r="O112" s="7" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K113" s="8">
+      <c r="K113" s="7">
         <v>5</v>
       </c>
-      <c r="L113" s="7" t="s">
+      <c r="L113" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="M113" s="7" t="s">
+      <c r="M113" s="3" t="s">
         <v>406</v>
       </c>
       <c r="N113" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="7" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="str">
+      <c r="A114" s="7" t="str">
         <f>"29.03.2023"</f>
         <v>29.03.2023</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K114" s="8">
+      <c r="K114" s="7">
         <v>1</v>
       </c>
-      <c r="L114" s="8" t="s">
+      <c r="L114" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M114" s="8" t="s">
+      <c r="M114" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N114" s="9" t="s">
+      <c r="N114" s="8" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="str">
+      <c r="A115" s="7" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G115" s="8" t="s">
+      <c r="G115" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H115" s="8" t="s">
+      <c r="H115" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="K115" s="8">
+      <c r="K115" s="7">
         <v>1</v>
       </c>
-      <c r="L115" s="8" t="s">
+      <c r="L115" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="M115" s="8" t="s">
+      <c r="M115" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N115" s="9" t="s">
+      <c r="N115" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="P115" s="8" t="s">
+      <c r="P115" s="7" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="str">
+      <c r="A116" s="7" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="K116" s="8">
+      <c r="K116" s="7">
         <v>2</v>
       </c>
-      <c r="L116" s="8" t="s">
+      <c r="L116" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M116" s="8" t="s">
+      <c r="M116" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="N116" s="9" t="s">
+      <c r="N116" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="P116" s="8" t="s">
+      <c r="P116" s="7" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="str">
+      <c r="A117" s="7" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="K117" s="8">
+      <c r="K117" s="7">
         <v>3</v>
       </c>
-      <c r="L117" s="8" t="s">
+      <c r="L117" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="M117" s="8" t="s">
+      <c r="M117" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="N117" s="9" t="s">
+      <c r="N117" s="8" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="str">
+      <c r="A118" s="7" t="str">
         <f>"12.04.2023"</f>
         <v>12.04.2023</v>
       </c>
-      <c r="K118" s="8">
+      <c r="K118" s="7">
         <v>4</v>
       </c>
-      <c r="L118" s="8" t="s">
+      <c r="L118" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="M118" s="8" t="s">
+      <c r="M118" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="N118" s="9" t="s">
+      <c r="N118" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="P118" s="8" t="s">
+      <c r="P118" s="7" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="str">
+      <c r="A119" s="7" t="str">
         <f t="shared" ref="A119:A126" si="0">"31.05.2023"</f>
         <v>31.05.2023</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K119" s="8">
+      <c r="K119" s="7">
         <v>1</v>
       </c>
-      <c r="L119" s="8" t="s">
+      <c r="L119" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M119" s="8" t="s">
+      <c r="M119" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="N119" s="9" t="s">
+      <c r="N119" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="O119" s="8" t="s">
+      <c r="O119" s="7" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="str">
+      <c r="A120" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="K120" s="8">
+      <c r="C120" s="9"/>
+      <c r="K120" s="7">
         <v>2</v>
       </c>
-      <c r="L120" s="8" t="s">
+      <c r="L120" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="M120" s="8" t="s">
+      <c r="M120" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N120" s="9" t="s">
+      <c r="N120" s="8" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="str">
+      <c r="A121" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="K121" s="8">
+      <c r="C121" s="9"/>
+      <c r="K121" s="7">
         <v>3</v>
       </c>
-      <c r="L121" s="8" t="s">
+      <c r="L121" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M121" s="8" t="s">
+      <c r="M121" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N121" s="9" t="s">
+      <c r="N121" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="O121" s="8" t="s">
+      <c r="O121" s="7" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="str">
+      <c r="A122" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C122" s="10"/>
-      <c r="K122" s="8">
+      <c r="C122" s="9"/>
+      <c r="K122" s="7">
         <v>4</v>
       </c>
-      <c r="L122" s="8" t="s">
+      <c r="L122" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="M122" s="8" t="s">
+      <c r="M122" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="N122" s="9" t="s">
+      <c r="N122" s="8" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="str">
+      <c r="A123" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="K123" s="8">
+      <c r="C123" s="9"/>
+      <c r="K123" s="7">
         <v>5</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L123" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="M123" s="8" t="s">
+      <c r="M123" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N123" s="9" t="s">
+      <c r="N123" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="O123" s="8" t="s">
+      <c r="O123" s="7" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="str">
+      <c r="A124" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="K124" s="8">
+      <c r="C124" s="9"/>
+      <c r="K124" s="7">
         <v>6</v>
       </c>
-      <c r="L124" s="8" t="s">
+      <c r="L124" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="M124" s="8" t="s">
+      <c r="M124" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="N124" s="9" t="s">
+      <c r="N124" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="O124" s="8" t="s">
+      <c r="O124" s="7" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="str">
+      <c r="A125" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="K125" s="8">
+      <c r="C125" s="9"/>
+      <c r="K125" s="7">
         <v>7</v>
       </c>
-      <c r="L125" s="8" t="s">
+      <c r="L125" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M125" s="8" t="s">
+      <c r="M125" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="N125" s="9" t="s">
+      <c r="N125" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="O125" s="8" t="s">
+      <c r="O125" s="7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="str">
+      <c r="A126" s="7" t="str">
         <f t="shared" si="0"/>
         <v>31.05.2023</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="K126" s="8">
+      <c r="C126" s="9"/>
+      <c r="K126" s="7">
         <v>8</v>
       </c>
-      <c r="L126" s="8" t="s">
+      <c r="L126" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="M126" s="8" t="s">
+      <c r="M126" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="N126" s="9" t="s">
+      <c r="N126" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="O126" s="8" t="s">
+      <c r="O126" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="str">
+      <c r="A127" s="7" t="str">
         <f t="shared" ref="A127:A132" si="1">"11.06.2023"</f>
         <v>11.06.2023</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G127" s="8" t="s">
+      <c r="G127" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K127" s="8">
+      <c r="K127" s="7">
         <v>1</v>
       </c>
-      <c r="L127" s="8" t="s">
+      <c r="L127" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="M127" s="8" t="s">
+      <c r="M127" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N127" s="9" t="s">
+      <c r="N127" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="O127" s="8" t="s">
+      <c r="O127" s="7" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="str">
+      <c r="A128" s="7" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K128" s="8">
+      <c r="K128" s="7">
         <v>2</v>
       </c>
-      <c r="L128" s="8" t="s">
+      <c r="L128" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M128" s="8" t="s">
+      <c r="M128" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="N128" s="9" t="s">
+      <c r="N128" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="O128" s="8" t="s">
+      <c r="O128" s="7" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="str">
+      <c r="A129" s="7" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K129" s="8">
+      <c r="K129" s="7">
         <v>3</v>
       </c>
-      <c r="L129" s="8" t="s">
+      <c r="L129" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="M129" s="8" t="s">
+      <c r="M129" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="str">
+      <c r="A130" s="7" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K130" s="8">
+      <c r="K130" s="7">
         <v>4</v>
       </c>
-      <c r="L130" s="8" t="s">
+      <c r="L130" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="M130" s="8" t="s">
+      <c r="M130" s="7" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="str">
+      <c r="A131" s="7" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K131" s="8">
+      <c r="K131" s="7">
         <v>5</v>
       </c>
-      <c r="L131" s="8" t="s">
+      <c r="L131" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="M131" s="8" t="s">
+      <c r="M131" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="N131" s="9" t="s">
+      <c r="N131" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="O131" s="8" t="s">
+      <c r="O131" s="7" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="str">
+      <c r="A132" s="7" t="str">
         <f t="shared" si="1"/>
         <v>11.06.2023</v>
       </c>
-      <c r="K132" s="8">
+      <c r="K132" s="7">
         <v>6</v>
       </c>
-      <c r="L132" s="8" t="s">
+      <c r="L132" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="M132" s="8" t="s">
+      <c r="M132" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="N132" s="9" t="s">
+      <c r="N132" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="O132" s="8" t="s">
+      <c r="O132" s="7" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="str">
+      <c r="A133" s="7" t="str">
         <f>"05.08.2023"</f>
         <v>05.08.2023</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K133" s="8">
+      <c r="K133" s="7">
         <v>1</v>
       </c>
-      <c r="L133" s="8" t="s">
+      <c r="L133" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M133" s="8" t="s">
+      <c r="M133" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N133" s="9" t="s">
+      <c r="N133" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="O133" s="8" t="s">
+      <c r="O133" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="str">
+      <c r="A134" s="7" t="str">
         <f>"13.09.2023"</f>
         <v>13.09.2023</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K134" s="8">
+      <c r="K134" s="7">
         <v>1</v>
       </c>
-      <c r="L134" s="8" t="s">
+      <c r="L134" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="M134" s="8" t="s">
+      <c r="M134" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="N134" s="9" t="s">
+      <c r="N134" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="O134" s="8" t="s">
+      <c r="O134" s="7" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="str">
+      <c r="A135" s="7" t="str">
         <f t="shared" ref="A135:A140" si="2">"29.09.2023"</f>
         <v>29.09.2023</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C135" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G135" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K135" s="8">
+      <c r="K135" s="7">
         <v>1</v>
       </c>
-      <c r="L135" s="8" t="s">
+      <c r="L135" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="M135" s="8" t="s">
+      <c r="M135" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N135" s="9" t="s">
+      <c r="N135" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="O135" s="8" t="s">
+      <c r="O135" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="str">
+      <c r="A136" s="7" t="str">
         <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="K136" s="8">
+      <c r="C136" s="9"/>
+      <c r="K136" s="7">
         <v>2</v>
       </c>
-      <c r="L136" s="8" t="s">
+      <c r="L136" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M136" s="8" t="s">
+      <c r="M136" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N136" s="9" t="s">
+      <c r="N136" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="O136" s="8" t="s">
+      <c r="O136" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="str">
+      <c r="A137" s="7" t="str">
         <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="K137" s="8">
+      <c r="C137" s="9"/>
+      <c r="K137" s="7">
         <v>3</v>
       </c>
-      <c r="L137" s="8" t="s">
+      <c r="L137" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="M137" s="8" t="s">
+      <c r="M137" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="N137" s="9" t="s">
+      <c r="N137" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="O137" s="8" t="s">
+      <c r="O137" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="str">
+      <c r="A138" s="7" t="str">
         <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="K138" s="8">
+      <c r="C138" s="9"/>
+      <c r="K138" s="7">
         <v>4</v>
       </c>
-      <c r="L138" s="8" t="s">
+      <c r="L138" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="M138" s="8" t="s">
+      <c r="M138" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="N138" s="9" t="s">
+      <c r="N138" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="O138" s="8" t="s">
+      <c r="O138" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="str">
+      <c r="A139" s="7" t="str">
         <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="K139" s="8">
+      <c r="C139" s="9"/>
+      <c r="K139" s="7">
         <v>5</v>
       </c>
-      <c r="L139" s="8" t="s">
+      <c r="L139" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="M139" s="8" t="s">
+      <c r="M139" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="N139" s="9" t="s">
+      <c r="N139" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="O139" s="8" t="s">
+      <c r="O139" s="7" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="str">
+      <c r="A140" s="7" t="str">
         <f t="shared" si="2"/>
         <v>29.09.2023</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="K140" s="8">
+      <c r="C140" s="9"/>
+      <c r="K140" s="7">
         <v>6</v>
       </c>
-      <c r="L140" s="8" t="s">
+      <c r="L140" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="M140" s="8" t="s">
+      <c r="M140" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N140" s="9" t="s">
+      <c r="N140" s="8" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="str">
+      <c r="A141" s="7" t="str">
         <f>"12.10.2023"</f>
         <v>12.10.2023</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K141" s="7">
+        <v>1</v>
+      </c>
+      <c r="L141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M141" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N141" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="P141" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D141" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="F141" s="8" t="s">
+    </row>
+    <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="str">
+        <f t="shared" ref="A142:A148" si="3">"16.10.2023"</f>
+        <v>16.10.2023</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F142" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G141" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K141" s="8">
+      <c r="G142" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K142" s="7">
         <v>1</v>
       </c>
-      <c r="L141" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M141" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N141" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="P141" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="str">
-        <f t="shared" ref="A142:A147" si="3">"16.10.2023"</f>
-        <v>16.10.2023</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="K142" s="8">
-        <v>1</v>
-      </c>
-      <c r="L142" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M142" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="N142" s="9" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="str">
+      <c r="L142" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M142" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="N142" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P142" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="str">
         <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="K143" s="8">
+      <c r="C143" s="9"/>
+      <c r="K143" s="7">
         <v>2</v>
       </c>
-      <c r="L143" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="M143" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N143" s="9" t="s">
-        <v>530</v>
+      <c r="L143" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M143" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="P143" s="7" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="str">
+      <c r="A144" s="10" t="str">
         <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="K144" s="8">
+      <c r="C144" s="9"/>
+      <c r="K144" s="7">
         <v>3</v>
       </c>
-      <c r="L144" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="M144" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="N144" s="9" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="str">
+      <c r="L144" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="M144" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N144" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="P144" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="str">
         <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="K145" s="8">
+      <c r="C145" s="9"/>
+      <c r="K145" s="7">
         <v>4</v>
       </c>
-      <c r="L145" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="M145" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N145" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="str">
+      <c r="L145" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="M145" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="N145" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="P145" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="10" t="str">
         <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="K146" s="8">
+      <c r="C146" s="9"/>
+      <c r="K146" s="7">
         <v>5</v>
       </c>
-      <c r="L146" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="M146" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="N146" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A147" s="12" t="str">
+      <c r="L146" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M146" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N146" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="P146" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="10" t="str">
         <f t="shared" si="3"/>
         <v>16.10.2023</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="K147" s="8">
+      <c r="C147" s="9"/>
+      <c r="K147" s="7">
         <v>6</v>
       </c>
-      <c r="L147" s="8" t="s">
+      <c r="L147" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="M147" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="N147" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="P147" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>16.10.2023</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="K148" s="7">
+        <v>7</v>
+      </c>
+      <c r="L148" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M148" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="M147" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="N147" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="str">
+      <c r="N148" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="P148" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="10" t="str">
         <f>"08.11.2023"</f>
         <v>08.11.2023</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B149" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C149" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D148" s="8" t="s">
+      <c r="D149" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="E148" s="8" t="s">
+      <c r="E149" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F148" s="8" t="s">
+      <c r="F149" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G148" s="8" t="s">
+      <c r="G149" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K148" s="8">
+      <c r="K149" s="7">
         <v>1</v>
       </c>
-      <c r="L148" s="8" t="s">
+      <c r="L149" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M148" s="8" t="s">
+      <c r="M149" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N148" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="O148" s="8" t="s">
+      <c r="N149" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="O149" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="str">
+    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="str">
         <f>"24.11.2023"</f>
         <v>24.11.2023</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B150" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="C150" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="D150" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="D149" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="E149" s="8" t="s">
+      <c r="E150" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F150" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G149" s="8" t="s">
+      <c r="G150" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K149" s="8">
+      <c r="K150" s="7">
         <v>1</v>
       </c>
-      <c r="L149" s="8" t="s">
+      <c r="L150" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="M150" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="M149" s="8" t="s">
+      <c r="N150" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="N149" s="9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="str">
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="str">
         <f>"24.11.2023"</f>
         <v>24.11.2023</v>
       </c>
-      <c r="B150" s="8"/>
-      <c r="G150" s="8" t="s">
+      <c r="B151" s="7"/>
+      <c r="G151" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K150" s="8">
+      <c r="K151" s="7">
         <v>2</v>
       </c>
-      <c r="L150" s="8" t="s">
+      <c r="L151" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="M150" s="8" t="s">
+      <c r="M151" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="N150" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="O150" s="8" t="s">
+      <c r="N151" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="O151" s="7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="str">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="str">
         <f>"16.06.2024"</f>
         <v>16.06.2024</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D152" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E152" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="F151" s="8" t="s">
+      <c r="F152" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="G151" s="8" t="s">
+      <c r="G152" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K151" s="8">
+      <c r="K152" s="7">
         <v>1</v>
       </c>
-      <c r="L151" s="8" t="s">
+      <c r="L152" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M151" s="8" t="s">
+      <c r="M152" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N151" s="9" t="s">
+      <c r="N152" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="O152" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="str">
+        <f t="shared" ref="A153:A155" si="4">"16.06.2024"</f>
+        <v>16.06.2024</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K153" s="7">
+        <v>2</v>
+      </c>
+      <c r="L153" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="O151" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="str">
-        <f t="shared" ref="A152:A154" si="4">"16.06.2024"</f>
-        <v>16.06.2024</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K152" s="8">
-        <v>2</v>
-      </c>
-      <c r="L152" s="8" t="s">
+      <c r="M153" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="M152" s="8" t="s">
+      <c r="N153" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="N152" s="9" t="s">
+      <c r="O153" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="O152" s="8" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="str">
+    </row>
+    <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="str">
         <f t="shared" si="4"/>
         <v>16.06.2024</v>
       </c>
-      <c r="G153" s="8" t="s">
+      <c r="G154" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K153" s="8">
+      <c r="K154" s="7">
         <v>3</v>
       </c>
-      <c r="L153" s="8" t="s">
+      <c r="L154" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M154" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N154" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="M153" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N153" s="9" t="s">
+      <c r="O154" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="O153" s="8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="str">
+    </row>
+    <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="str">
         <f t="shared" si="4"/>
         <v>16.06.2024</v>
       </c>
-      <c r="G154" s="8" t="s">
+      <c r="G155" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K154" s="8">
+      <c r="K155" s="7">
         <v>4</v>
       </c>
-      <c r="L154" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="M154" t="s">
+      <c r="L155" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M155" t="s">
         <v>27</v>
       </c>
-      <c r="N154" s="9" t="s">
+      <c r="N155" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="O155" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="O154" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="str">
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="str">
         <f>"31.12.2050"</f>
         <v>31.12.2050</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>568</v>
+      <c r="B156" s="8" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P154">
-    <sortCondition ref="A2:A154"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P155">
+    <sortCondition ref="A2:A155"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H77" r:id="rId1"/>
-    <hyperlink ref="C51" r:id="rId2"/>
-    <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$"/>
-    <hyperlink ref="C114" r:id="rId4"/>
-    <hyperlink ref="C148" r:id="rId5"/>
-    <hyperlink ref="C119" r:id="rId6"/>
-    <hyperlink ref="C133" r:id="rId7"/>
-    <hyperlink ref="C149" r:id="rId8"/>
+    <hyperlink ref="H77" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C51" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H109" r:id="rId3" display="https://urldefense.com/v3/__http:/www.youtube.com/@biostat_reviews__;!!N3hqHg43uw!qSFZ6CinavKXCScVyqzyOOZ1nqhhrcCXU560M_FxxlHb0YOvNuF3HkFI2dogiKDjjZmUQyYAPYejC--9qf1bJhfiDtG1Jng$" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C114" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C149" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C119" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C133" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C150" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
